--- a/Проектирование/Исходные данные.xlsx
+++ b/Проектирование/Исходные данные.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BB2556-24F6-4C29-BA72-F8F323047B08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465C176-D224-48A1-B7F9-761FADDA6415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13760" yWindow="2660" windowWidth="15960" windowHeight="15380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
     <sheet name="Структура Input" sheetId="3" r:id="rId2"/>
     <sheet name="Структура Task" sheetId="2" r:id="rId3"/>
+    <sheet name="Файл настроек" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{76C87433-176C-44D1-89B4-F0287301B1DE}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{76C87433-176C-44D1-89B4-F0287301B1DE}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{DE0AB5F7-41E6-4F02-BC3F-F2E4631264AF}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DE0AB5F7-41E6-4F02-BC3F-F2E4631264AF}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="165">
   <si>
     <t>Название части</t>
   </si>
@@ -505,12 +506,6 @@
     <t>Путь сохранения отчета</t>
   </si>
   <si>
-    <t>дата/default</t>
-  </si>
-  <si>
-    <t>путь/default</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -520,12 +515,6 @@
     <t xml:space="preserve">--type -t </t>
   </si>
   <si>
-    <t>--start -s</t>
-  </si>
-  <si>
-    <t>--end -e</t>
-  </si>
-  <si>
     <t>--number -n</t>
   </si>
   <si>
@@ -602,6 +591,132 @@
   </si>
   <si>
     <t>raw</t>
+  </si>
+  <si>
+    <t>Путь к папке с дневными заметками</t>
+  </si>
+  <si>
+    <t>путь</t>
+  </si>
+  <si>
+    <t>дата/дата первой заметки</t>
+  </si>
+  <si>
+    <t>дата/текущая дата</t>
+  </si>
+  <si>
+    <t>Путь к папке с обычными заметками</t>
+  </si>
+  <si>
+    <t>Норматив помидорок</t>
+  </si>
+  <si>
+    <t>число</t>
+  </si>
+  <si>
+    <t>За период/Недельный/ Месячный/По теме/По эпику/ По проекту/ По задаче</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Detailed</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>+ (short)</t>
+  </si>
+  <si>
+    <t>+ (full)</t>
+  </si>
+  <si>
+    <t>short/summary/ detailed/full</t>
+  </si>
+  <si>
+    <t>screen/md/join</t>
+  </si>
+  <si>
+    <t>path/-</t>
+  </si>
+  <si>
+    <t>[path]</t>
+  </si>
+  <si>
+    <t>daily_base</t>
+  </si>
+  <si>
+    <t>kbase</t>
+  </si>
+  <si>
+    <t>raw_path</t>
+  </si>
+  <si>
+    <t>[analysis]</t>
+  </si>
+  <si>
+    <t>norma</t>
+  </si>
+  <si>
+    <t>Путь к папке с базой ежедневных заметок</t>
+  </si>
+  <si>
+    <t>output_md_path</t>
+  </si>
+  <si>
+    <t>Путь для сохранения отчета в markdown</t>
+  </si>
+  <si>
+    <t>output_json_path</t>
+  </si>
+  <si>
+    <t>Путь для сохранения отчета в json</t>
+  </si>
+  <si>
+    <t>Путь для сохранения dataframe</t>
+  </si>
+  <si>
+    <t>Номатив помидорок на день (14)</t>
+  </si>
+  <si>
+    <t>log_path</t>
+  </si>
+  <si>
+    <t>Путь для сохранения log</t>
+  </si>
+  <si>
+    <t>--entityname -e</t>
+  </si>
+  <si>
+    <t>--startdate -sd</t>
+  </si>
+  <si>
+    <t>--enddate -ed</t>
+  </si>
+  <si>
+    <t>Название темы</t>
+  </si>
+  <si>
+    <t>номер месяца/-</t>
+  </si>
+  <si>
+    <t>название месяца/-</t>
+  </si>
+  <si>
+    <t>Год/-</t>
+  </si>
+  <si>
+    <t>last week/last month</t>
+  </si>
+  <si>
+    <t>week/month</t>
   </si>
 </sst>
 </file>
@@ -666,7 +781,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -757,11 +872,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -774,6 +902,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -793,12 +927,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,58 +1219,58 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
-    <col min="5" max="5" width="88.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="88.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="7" width="92.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="92.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="85" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="68.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="43.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="72.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="53.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="68.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="44.7265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="72.26953125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.54296875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
@@ -1181,7 +1316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1217,7 +1352,7 @@
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1349,7 +1484,7 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -1379,7 +1514,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -1417,7 +1552,7 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1507,7 +1642,7 @@
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -1537,7 +1672,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -1567,7 +1702,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1629,413 +1764,800 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="17.6328125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="C2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="H2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="I2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="J2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="K2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="B3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="F3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="H3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="D4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="E6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="E10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="I12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="H13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="C15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2045,147 +2567,228 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1941B-FA66-4669-9C83-7A8EF9A73A7F}">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Проектирование/Исходные данные.xlsx
+++ b/Проектирование/Исходные данные.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465C176-D224-48A1-B7F9-761FADDA6415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160004F-C010-4792-9867-AF726260D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="2660" windowWidth="15960" windowHeight="15380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="1090" windowWidth="15960" windowHeight="15380" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
-    <sheet name="Структура Input" sheetId="3" r:id="rId2"/>
-    <sheet name="Структура Task" sheetId="2" r:id="rId3"/>
-    <sheet name="Файл настроек" sheetId="4" r:id="rId4"/>
+    <sheet name="Тесткейсы" sheetId="5" r:id="rId2"/>
+    <sheet name="Структура Input" sheetId="3" r:id="rId3"/>
+    <sheet name="Структура Task" sheetId="2" r:id="rId4"/>
+    <sheet name="Структура Report" sheetId="6" r:id="rId5"/>
+    <sheet name="Файл настроек" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DE0AB5F7-41E6-4F02-BC3F-F2E4631264AF}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{F4646DFE-9A58-4D0F-9533-8F6BACC27888}">
       <text>
         <r>
           <rPr>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="222">
   <si>
     <t>Название части</t>
   </si>
@@ -164,13 +166,7 @@
     <t>Процент учтенных осмысленных помидорок от возможного количества без учета отсутствующих записей: {Процент учтенных осмысленных помидорок от возможного количества без учета отсутствующих записей}</t>
   </si>
   <si>
-    <t>От максимума по нормативу вычитается колчество отсутствующих записей*норматив за день. От этого считатеся процент всего учтенных помидорок</t>
-  </si>
-  <si>
     <t>Часть формируется  при наличии записей</t>
-  </si>
-  <si>
-    <t>Выводится перечнем по убыванию</t>
   </si>
   <si>
     <t>Максимально возможное количество помидорок по нормативу: {Максимально возможное количество помидорок по нормативу}
@@ -207,21 +203,12 @@
 [{Ссылки на заметки}]</t>
   </si>
   <si>
-    <t>Перечень ссылок определяется по атрибуту создано у файлов заметок</t>
-  </si>
-  <si>
     <t>За период были изменены заметки:
 [{Ссылки на заметки}]</t>
   </si>
   <si>
-    <t>Перечень ссылок определяется по атрибуту изменено у файлов заметок</t>
-  </si>
-  <si>
     <t>За период были изучались заметки:
 [{Ссылки на заметки}]</t>
-  </si>
-  <si>
-    <t>Перечень ссылок определяется по атрибуту открыт у файлов заметок</t>
   </si>
   <si>
     <t>Начало недели: {дата начала}
@@ -479,9 +466,6 @@
     <t>Наличие агрегированной части</t>
   </si>
   <si>
-    <t>кратко/подробно/нет</t>
-  </si>
-  <si>
     <t>Наличие детализированной части</t>
   </si>
   <si>
@@ -515,12 +499,6 @@
     <t xml:space="preserve">--type -t </t>
   </si>
   <si>
-    <t>--number -n</t>
-  </si>
-  <si>
-    <t>--month -m</t>
-  </si>
-  <si>
     <t>--year -y</t>
   </si>
   <si>
@@ -560,9 +538,6 @@
     <t>номер недели</t>
   </si>
   <si>
-    <t>Год</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -578,18 +553,6 @@
     <t>entity</t>
   </si>
   <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
     <t>raw</t>
   </si>
   <si>
@@ -683,9 +646,6 @@
     <t>Путь для сохранения dataframe</t>
   </si>
   <si>
-    <t>Номатив помидорок на день (14)</t>
-  </si>
-  <si>
     <t>log_path</t>
   </si>
   <si>
@@ -695,28 +655,251 @@
     <t>--entityname -e</t>
   </si>
   <si>
-    <t>--startdate -sd</t>
-  </si>
-  <si>
-    <t>--enddate -ed</t>
-  </si>
-  <si>
-    <t>Название темы</t>
-  </si>
-  <si>
     <t>номер месяца/-</t>
   </si>
   <si>
     <t>название месяца/-</t>
   </si>
   <si>
-    <t>Год/-</t>
-  </si>
-  <si>
     <t>last week/last month</t>
   </si>
   <si>
     <t>week/month</t>
+  </si>
+  <si>
+    <t>--currentperiod -cp</t>
+  </si>
+  <si>
+    <t>--monthname -mn</t>
+  </si>
+  <si>
+    <t>--startdate -s</t>
+  </si>
+  <si>
+    <t>--enddate -e</t>
+  </si>
+  <si>
+    <t>Название сущности</t>
+  </si>
+  <si>
+    <t>theme/epic/project/ task</t>
+  </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t>год/-</t>
+  </si>
+  <si>
+    <t>Номатив помидорок на день (по-умолчанию 14)</t>
+  </si>
+  <si>
+    <t>Дата задчи</t>
+  </si>
+  <si>
+    <t>Чем создана задача</t>
+  </si>
+  <si>
+    <t>Описание периода</t>
+  </si>
+  <si>
+    <t>Период/ По названию месяца/ По номеру недели/ по номеру года/ за текущий месяц/ за прошлый месяц/ за текущую неделю/ за прошлую неделю</t>
+  </si>
+  <si>
+    <t>--verbose -v</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>Тип сущности</t>
+  </si>
+  <si>
+    <t>Имя сущности</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>short часть</t>
+  </si>
+  <si>
+    <t>short часть
+Перечень ссылок определяется по атрибуту создано у файлов заметок</t>
+  </si>
+  <si>
+    <t>full часть
+Перечень ссылок определяется по атрибуту изменено у файлов заметок</t>
+  </si>
+  <si>
+    <t>full часть
+Перечень ссылок определяется по атрибуту открыт у файлов заметок</t>
+  </si>
+  <si>
+    <t>Даты, в которые были записи
+[{Ссылки на заметки} - {Количество помидоров}]</t>
+  </si>
+  <si>
+    <t>1-й вариант для short части
+2-й вариант для  full части</t>
+  </si>
+  <si>
+    <t>full часть
+От максимума по нормативу вычитается колчество отсутствующих записей*норматив за день. От этого считатеся процент всего учтенных помидорок</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>Полнота агрегированной части</t>
+  </si>
+  <si>
+    <t>Short/Full</t>
+  </si>
+  <si>
+    <t>полнота связей</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>когда создан</t>
+  </si>
+  <si>
+    <t>чем создан</t>
+  </si>
+  <si>
+    <t>вид отчета</t>
+  </si>
+  <si>
+    <t>описание периода</t>
+  </si>
+  <si>
+    <t>наличие title</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>наличие period</t>
+  </si>
+  <si>
+    <t>наличие aggregated</t>
+  </si>
+  <si>
+    <t>полнота aggregated</t>
+  </si>
+  <si>
+    <t>наличие detailed</t>
+  </si>
+  <si>
+    <t>наличие links</t>
+  </si>
+  <si>
+    <t>полнота links</t>
+  </si>
+  <si>
+    <t>наличие source</t>
+  </si>
+  <si>
+    <t>dataframe отчета</t>
+  </si>
+  <si>
+    <t>норматив помидорок</t>
+  </si>
+  <si>
+    <t>тип сущности</t>
+  </si>
+  <si>
+    <t>theme/ epic/ project/ task/ week/ period/ month/ raw</t>
+  </si>
+  <si>
+    <t>имя сущности</t>
+  </si>
+  <si>
+    <t>тема сущности</t>
+  </si>
+  <si>
+    <t>эпик сущности</t>
+  </si>
+  <si>
+    <t>проект сущности</t>
+  </si>
+  <si>
+    <t>строка текста заголовка</t>
+  </si>
+  <si>
+    <t>кол-во дней в периоде</t>
+  </si>
+  <si>
+    <t>номер года</t>
+  </si>
+  <si>
+    <t>количество осмысленных помидорок</t>
+  </si>
+  <si>
+    <t>структура сущности</t>
+  </si>
+  <si>
+    <t>[(тема, количество, процент от общего количества в периоде)]/  
+[(тема, эпик, количество, процент от общего количества в периоде)]/  
+[(эпик, количестов помидоров, процент помидорок от общего в теме)]/ 
+[(проект, количестов помидоров, процент помидорок от общего в эпике)]/ 
+[(задача, количестов помидоров, процент помидорок от общего в проекте)]</t>
+  </si>
+  <si>
+    <t>максимально возможное количество помидорок по нормативу</t>
+  </si>
+  <si>
+    <t>процент учтенных осмысленных помидорок от возможного количества по нормативу</t>
+  </si>
+  <si>
+    <t>процент учтенных осмысленных помидорок от возможного количества без учета отсутствующих записей</t>
+  </si>
+  <si>
+    <t>дата первой записи в базе, содержащей запись по теме</t>
+  </si>
+  <si>
+    <t>дата последней записи в базе, содержащей запись по теме</t>
+  </si>
+  <si>
+    <t>количество дней, в которые упоминалась сущность</t>
+  </si>
+  <si>
+    <t>процент дней от общего количества, в которых были помидорки по сущности</t>
+  </si>
+  <si>
+    <t>корень дерева отчета</t>
+  </si>
+  <si>
+    <t>словарь узлов дерева отчета</t>
+  </si>
+  <si>
+    <t>список существующих заметок</t>
+  </si>
+  <si>
+    <t>[(Ссылка на заметку, количество помидорок)]</t>
+  </si>
+  <si>
+    <t>список созданных заметок</t>
+  </si>
+  <si>
+    <t>[{Ссылки на заметки}]</t>
+  </si>
+  <si>
+    <t>список измененных заметок</t>
+  </si>
+  <si>
+    <t>список открывавшихся заметок</t>
+  </si>
+  <si>
+    <t>количество обнаруженных записей</t>
+  </si>
+  <si>
+    <t>список отсутствующих записей</t>
+  </si>
+  <si>
+    <t>[перечень дат]</t>
   </si>
 </sst>
 </file>
@@ -889,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -909,6 +1092,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -926,15 +1115,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,11 +1396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,23 +1431,23 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1292,28 +1472,28 @@
         <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1328,27 +1508,27 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P3" s="3"/>
     </row>
@@ -1357,43 +1537,43 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1407,150 +1587,178 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="M6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="O6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="K7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="M7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="M8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="O8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -1560,108 +1768,106 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1672,26 +1878,26 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1702,53 +1908,83 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="K14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="M14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="O14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1763,814 +1999,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79708BE6-27A9-456F-B60E-C1C786FD1BD6}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="17.6328125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="12" width="17.6328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2582,127 +3025,171 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>173</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>175</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2711,12 +3198,442 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7265625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1941B-FA66-4669-9C83-7A8EF9A73A7F}">
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2727,68 +3644,68 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
